--- a/datasets/expertgroup/dataset_expertgroup.xlsx
+++ b/datasets/expertgroup/dataset_expertgroup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\AMS\Thesis\datasets\expertgroup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rblieken\Dropbox\MacWinSwap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4938780-BA83-4F24-861B-37766266773E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CB7B3D-B0EC-4634-A986-3FEF6F14FB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12560" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Validation of Succes Factors EA" sheetId="1" r:id="rId1"/>
@@ -30,16 +30,18 @@
     <sheet name="To what extent are the attrib 1" sheetId="13" r:id="rId15"/>
     <sheet name="Scoring EA" sheetId="20" r:id="rId16"/>
     <sheet name="End Survey Flipboard" sheetId="14" r:id="rId17"/>
-    <sheet name="End Survey" sheetId="15" r:id="rId18"/>
-    <sheet name="Follow up list" sheetId="16" r:id="rId19"/>
-    <sheet name="Follow up voting" sheetId="17" r:id="rId20"/>
-    <sheet name="Wrap up" sheetId="18" r:id="rId21"/>
+    <sheet name="Charts end survey" sheetId="24" r:id="rId18"/>
+    <sheet name="End Survey" sheetId="15" r:id="rId19"/>
+    <sheet name="Follow up list" sheetId="16" r:id="rId20"/>
+    <sheet name="Follow up voting" sheetId="17" r:id="rId21"/>
+    <sheet name="Wrap up" sheetId="18" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId22"/>
-    <pivotCache cacheId="10" r:id="rId23"/>
-    <pivotCache cacheId="14" r:id="rId24"/>
+    <pivotCache cacheId="0" r:id="rId23"/>
+    <pivotCache cacheId="1" r:id="rId24"/>
+    <pivotCache cacheId="2" r:id="rId25"/>
+    <pivotCache cacheId="8" r:id="rId26"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -57,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="137">
   <si>
     <t>Title</t>
   </si>
@@ -857,7 +859,7 @@
                 <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="573796856"/>
@@ -917,7 +919,7 @@
                 <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="573796528"/>
@@ -959,7 +961,7 @@
                 <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -995,7 +997,7 @@
           <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1081,7 +1083,7 @@
                     <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1264,7 +1266,7 @@
                           <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
                         </a:defRPr>
                       </a:pPr>
-                      <a:endParaRPr lang="en-US"/>
+                      <a:endParaRPr lang="nl-NL"/>
                     </a:p>
                   </c:txPr>
                   <c:dLblPos val="outEnd"/>
@@ -1445,7 +1447,7 @@
                           <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
                         </a:defRPr>
                       </a:pPr>
-                      <a:endParaRPr lang="en-US"/>
+                      <a:endParaRPr lang="nl-NL"/>
                     </a:p>
                   </c:txPr>
                   <c:dLblPos val="outEnd"/>
@@ -1610,7 +1612,7 @@
                 <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="573796856"/>
@@ -1693,7 +1695,7 @@
                   <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nl-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1725,7 +1727,7 @@
                 <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="573796528"/>
@@ -1764,7 +1766,7 @@
           <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1850,7 +1852,7 @@
                     <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1977,7 +1979,7 @@
                 <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="573796856"/>
@@ -2059,7 +2061,7 @@
                   <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nl-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2091,7 +2093,7 @@
                 <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="573796528"/>
@@ -2130,7 +2132,7 @@
           <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2326,7 +2328,7 @@
                 <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="573796856"/>
@@ -2386,7 +2388,7 @@
                 <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="573796528"/>
@@ -2428,7 +2430,7 @@
                 <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -2464,7 +2466,7 @@
           <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2550,7 +2552,7 @@
                     <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2731,7 +2733,7 @@
                 <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="573796856"/>
@@ -2814,7 +2816,7 @@
                   <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nl-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2846,7 +2848,7 @@
                 <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="573796528"/>
@@ -2885,7 +2887,7 @@
           <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3077,7 +3079,7 @@
                 <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="573796856"/>
@@ -3137,7 +3139,7 @@
                 <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="573796528"/>
@@ -3179,7 +3181,7 @@
                 <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -3221,7 +3223,338 @@
           <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Charts end survey'!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rating</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="88500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Charts end survey'!$B$9:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Participant C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Participant E</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Participant H</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Participant J</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Participant A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Participant D</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Participant G</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Participant B</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Participant F</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Participant I</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Charts end survey'!$C$9:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3FB9-4E39-B4C9-00E922181E06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="573796528"/>
+        <c:axId val="573796856"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="573796528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573796856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="573796856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573796528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="0"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:ea typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:cs typeface="CMU Sans Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3394,6 +3727,33 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5910,6 +6270,509 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6658,6 +7521,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>358773</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>377673</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2C602DE-C5B0-D389-4348-DCAF23A51674}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bliekendaal, Rene" refreshedDate="44675.861565740743" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="120" xr:uid="{1B10E4F2-E95C-46D3-AD52-8DFE19CDBF70}">
   <cacheSource type="worksheet">
@@ -6796,6 +7700,47 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bliekendaal, Rene" refreshedDate="44688.652495949071" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="50" xr:uid="{D3A7DBD3-ABBF-4A11-9048-AE293AC9B715}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A8:C58" sheet="End Survey"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Item" numFmtId="0">
+      <sharedItems count="5">
+        <s v="To what extent do you find the research relevant?"/>
+        <s v="To what extent did this session fulfil your expectations?"/>
+        <s v="To what extent do you think that the research can be used by yourself?"/>
+        <s v="To what extent do you think that the research can be used in the public sector?"/>
+        <s v="To what extent do you think that the research can be used by your organisation?"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Rating" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="10"/>
+    </cacheField>
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Participant A"/>
+        <s v="Participant J"/>
+        <s v="Participant D"/>
+        <s v="Participant C"/>
+        <s v="Participant G"/>
+        <s v="Participant F"/>
+        <s v="Participant I"/>
+        <s v="Participant E"/>
+        <s v="Participant H"/>
+        <s v="Participant B"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="120">
   <r>
@@ -8161,8 +9106,263 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="50">
+  <r>
+    <x v="0"/>
+    <n v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="9"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="9"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="6"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="8"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="9"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="8"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="9"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="9"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="6"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="7"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="8"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="8"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="7"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="8"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="8"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="8"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="8"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="8"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="7"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="7"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="9"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="7"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="4"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="9"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="8"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="6"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="8"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="8"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="4"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="4"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="8"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="6"/>
+    <x v="9"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CF9132D4-8EDD-4ECF-9C0E-B2A4F7955B7E}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CF9132D4-8EDD-4ECF-9C0E-B2A4F7955B7E}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:N6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -8261,7 +9461,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C64600C-59D3-4441-9C7A-3587AAEA11F7}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C64600C-59D3-4441-9C7A-3587AAEA11F7}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:N6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -8355,7 +9555,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{63E50793-E8F1-4A14-B209-2D078243FA14}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{63E50793-E8F1-4A14-B209-2D078243FA14}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="C3:N6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -8444,6 +9644,101 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Sum of Rating" fld="1" baseField="0" baseItem="2010282276"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B0E9A131-3FB0-441D-9A36-4A94016CC04B}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:L6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item h="1" x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="4"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Rating" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -10147,11 +11442,292 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride6.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="1F497D"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="EEECE1"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4F81BD"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="C0504D"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="9BBB59"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="8064A2"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4BACC6"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="F79646"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0000FF"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="800080"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Cambria"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -13705,7 +15281,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -13755,11 +15331,257 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DED03F0-0E08-4C03-8423-4E6789AB7336}">
+  <dimension ref="A3:L18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="67.23046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.61328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.61328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.07421875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.69140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="11">
+        <v>7</v>
+      </c>
+      <c r="C5" s="12">
+        <v>6</v>
+      </c>
+      <c r="D5" s="12">
+        <v>9</v>
+      </c>
+      <c r="E5" s="12">
+        <v>7</v>
+      </c>
+      <c r="F5" s="12">
+        <v>9</v>
+      </c>
+      <c r="G5" s="12">
+        <v>4</v>
+      </c>
+      <c r="H5" s="12">
+        <v>7</v>
+      </c>
+      <c r="I5" s="12">
+        <v>8</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12">
+        <v>8</v>
+      </c>
+      <c r="L5" s="13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="14">
+        <v>7</v>
+      </c>
+      <c r="C6" s="15">
+        <v>6</v>
+      </c>
+      <c r="D6" s="15">
+        <v>9</v>
+      </c>
+      <c r="E6" s="15">
+        <v>7</v>
+      </c>
+      <c r="F6" s="15">
+        <v>9</v>
+      </c>
+      <c r="G6" s="15">
+        <v>4</v>
+      </c>
+      <c r="H6" s="15">
+        <v>7</v>
+      </c>
+      <c r="I6" s="15">
+        <v>8</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15">
+        <v>8</v>
+      </c>
+      <c r="L6" s="16">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B14" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B15" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="12"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:C18">
+    <sortCondition descending="1" ref="C9:C18"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -14434,45 +16256,6 @@
       </c>
       <c r="C58" t="s">
         <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="66.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -14656,10 +16439,51 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="66.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -14955,7 +16779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -16479,7 +18303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>

--- a/datasets/expertgroup/dataset_expertgroup.xlsx
+++ b/datasets/expertgroup/dataset_expertgroup.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
-  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rblieken\Dropbox\MacWinSwap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CB7B3D-B0EC-4634-A986-3FEF6F14FB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC12E6DA-C2B1-43A2-A7B1-55E1D89650BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12560" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Validation of Succes Factors EA" sheetId="1" r:id="rId1"/>
@@ -20,28 +20,33 @@
     <sheet name="Presentation on interim results" sheetId="5" r:id="rId5"/>
     <sheet name="Brainstorm on possible Antifrag" sheetId="6" r:id="rId6"/>
     <sheet name="Organise items" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet4" sheetId="22" r:id="rId8"/>
-    <sheet name="To what extent are the attribut" sheetId="8" r:id="rId9"/>
-    <sheet name="Schools of thought of Enterpris" sheetId="9" r:id="rId10"/>
-    <sheet name="To what extent are the EA schoo" sheetId="10" r:id="rId11"/>
-    <sheet name="Scoring EA Schools" sheetId="21" r:id="rId12"/>
-    <sheet name="Brainstorm on possible EA attri" sheetId="11" r:id="rId13"/>
-    <sheet name="Organise items 1" sheetId="12" r:id="rId14"/>
-    <sheet name="To what extent are the attrib 1" sheetId="13" r:id="rId15"/>
-    <sheet name="Scoring EA" sheetId="20" r:id="rId16"/>
-    <sheet name="End Survey Flipboard" sheetId="14" r:id="rId17"/>
-    <sheet name="Charts end survey" sheetId="24" r:id="rId18"/>
-    <sheet name="End Survey" sheetId="15" r:id="rId19"/>
-    <sheet name="Follow up list" sheetId="16" r:id="rId20"/>
-    <sheet name="Follow up voting" sheetId="17" r:id="rId21"/>
-    <sheet name="Wrap up" sheetId="18" r:id="rId22"/>
+    <sheet name="Antifragile charts" sheetId="22" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="25" r:id="rId9"/>
+    <sheet name="To what extent are the attribut" sheetId="8" r:id="rId10"/>
+    <sheet name="Schools of thought of Enterpris" sheetId="9" r:id="rId11"/>
+    <sheet name="Schools" sheetId="26" r:id="rId12"/>
+    <sheet name="To what extent are the EA schoo" sheetId="10" r:id="rId13"/>
+    <sheet name="Scoring EA Schools" sheetId="21" r:id="rId14"/>
+    <sheet name="Brainstorm on possible EA attri" sheetId="11" r:id="rId15"/>
+    <sheet name="Organise items 1" sheetId="12" r:id="rId16"/>
+    <sheet name="Select" sheetId="27" r:id="rId17"/>
+    <sheet name="To what extent are the attrib 1" sheetId="13" r:id="rId18"/>
+    <sheet name="Scoring EA" sheetId="20" r:id="rId19"/>
+    <sheet name="End Survey Flipboard" sheetId="14" r:id="rId20"/>
+    <sheet name="Charts end survey" sheetId="24" r:id="rId21"/>
+    <sheet name="End Survey" sheetId="15" r:id="rId22"/>
+    <sheet name="Follow up list" sheetId="16" r:id="rId23"/>
+    <sheet name="Follow up voting" sheetId="17" r:id="rId24"/>
+    <sheet name="Wrap up" sheetId="18" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId23"/>
-    <pivotCache cacheId="1" r:id="rId24"/>
-    <pivotCache cacheId="2" r:id="rId25"/>
-    <pivotCache cacheId="8" r:id="rId26"/>
+    <pivotCache cacheId="0" r:id="rId26"/>
+    <pivotCache cacheId="1" r:id="rId27"/>
+    <pivotCache cacheId="4" r:id="rId28"/>
+    <pivotCache cacheId="3" r:id="rId29"/>
+    <pivotCache cacheId="8" r:id="rId30"/>
+    <pivotCache cacheId="12" r:id="rId31"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -59,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="142">
   <si>
     <t>Title</t>
   </si>
@@ -476,6 +481,21 @@
   <si>
     <t>Non-Monotonicity</t>
   </si>
+  <si>
+    <t>Votes</t>
+  </si>
+  <si>
+    <t>Consensus</t>
+  </si>
+  <si>
+    <t>Needed Votes</t>
+  </si>
+  <si>
+    <t>Votes Larger than 6</t>
+  </si>
+  <si>
+    <t>75% Rounded Down</t>
+  </si>
 </sst>
 </file>
 
@@ -526,7 +546,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -630,11 +650,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -660,6 +713,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,7 +765,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$D$10</c:f>
+              <c:f>'Antifragile charts'!$D$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -727,7 +788,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$C$11:$C$20</c:f>
+              <c:f>'Antifragile charts'!$C$11:$C$20</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -765,7 +826,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$D$11:$D$20</c:f>
+              <c:f>'Antifragile charts'!$D$11:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7741,6 +7802,93 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bliekendaal, Rene" refreshedDate="44688.731224074072" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="30" xr:uid="{89C4192E-6111-4674-887B-095530D2D047}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A6:C36" sheet="To what extent are the EA schoo"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Item" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Enterprise IT Architecting"/>
+        <s v="Enterprise Integrating"/>
+        <s v="Enterprise Ecological Adaptation"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Rating" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="10"/>
+    </cacheField>
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Participant H"/>
+        <s v="Participant E"/>
+        <s v="Participant J"/>
+        <s v="Participant G"/>
+        <s v="Participant A"/>
+        <s v="Participant D"/>
+        <s v="Participant B"/>
+        <s v="Participant F"/>
+        <s v="Participant C"/>
+        <s v="Participant I"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bliekendaal, Rene" refreshedDate="44688.734289236112" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="120" xr:uid="{07E1C795-0D25-40A3-BD26-ADB500CF3337}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A15:C135" sheet="To what extent are the attrib 1"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Item" numFmtId="0">
+      <sharedItems count="12">
+        <s v="Systems-in-environment thinking"/>
+        <s v="Holist (systemic) stance"/>
+        <s v="Organisational learning"/>
+        <s v="Environmental learning"/>
+        <s v="Intra-organisational coherency"/>
+        <s v="System-in-environment coevolution learning"/>
+        <s v="Adapt to business language"/>
+        <s v="agile enterprise"/>
+        <s v="Real Time Trust denken (policy en attribuut gebaseerd)"/>
+        <s v="Dialoog voeren"/>
+        <s v="Validation"/>
+        <s v="Altijd goed architectuur"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Rating" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="10"/>
+    </cacheField>
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Participant D"/>
+        <s v="Participant J"/>
+        <s v="Participant B"/>
+        <s v="Participant A"/>
+        <s v="Participant E"/>
+        <s v="Participant F"/>
+        <s v="Participant I"/>
+        <s v="Participant H"/>
+        <s v="Participant C"/>
+        <s v="Participant G"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="120">
   <r>
@@ -9361,8 +9509,768 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="30">
+  <r>
+    <x v="0"/>
+    <n v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="7"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="4"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="7"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="6"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="7"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="6"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="7"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="7"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="8"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="8"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="8"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="7"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="9"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="7"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="9"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="10"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="10"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="9"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="9"/>
+    <x v="9"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="120">
+  <r>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="8"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="8"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="7"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="7"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="9"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="7"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="6"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="7"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="8"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="9"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="7"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="8"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="10"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="6"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="8"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="7"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="8"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="8"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="8"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="10"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="8"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="8"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="7"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="8"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="9"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="7"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="6"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="8"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="6"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="7"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="8"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="8"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="3"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="6"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="8"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="8"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="8"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="6"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="5"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="8"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="6"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="4"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="7"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="9"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="8"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="8"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="4"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="8"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="8"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="5"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="8"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="6"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="5"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="7"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="7"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="9"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="7"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="5"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="8"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="7"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="7"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="9"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="8"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="7"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="6"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="8"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="8"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="8"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="9"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="4"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <m/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="4"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="7"/>
+    <x v="9"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CF9132D4-8EDD-4ECF-9C0E-B2A4F7955B7E}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CF9132D4-8EDD-4ECF-9C0E-B2A4F7955B7E}" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:N6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -9461,6 +10369,228 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A3C0A3A-1C07-4BBE-AE3A-23EC8D161362}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:L14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="11">
+        <item x="9"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Rating" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{769BD696-9D75-49FE-A9C1-3860DAF4EF8E}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:L8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="11">
+        <item x="4"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Rating" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C64600C-59D3-4441-9C7A-3587AAEA11F7}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:N6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
@@ -9554,7 +10684,142 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{27A38432-6DDB-4848-A430-E7BBFBAFA082}" name="PivotTable3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:L17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="6"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="11">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Rating" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{63E50793-E8F1-4A14-B209-2D078243FA14}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="C3:N6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
@@ -9657,8 +10922,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B0E9A131-3FB0-441D-9A36-4A94016CC04B}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B0E9A131-3FB0-441D-9A36-4A94016CC04B}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:L6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -11727,7 +12992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -11820,6 +13085,1201 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="100.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2">
+        <v>6.9</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0.32</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3" s="20">
+        <v>0.51</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C4" s="20">
+        <v>0.23</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5">
+        <v>7.8</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0.36</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6">
+        <v>6.7</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0.36</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7">
+        <v>5.8</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0.37</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8">
+        <v>7.4</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0.31</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9">
+        <v>6.2</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D67" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76">
+        <v>6</v>
+      </c>
+      <c r="C76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77" t="s">
+        <v>122</v>
+      </c>
+      <c r="D77" t="s">
+        <v>49</v>
+      </c>
+      <c r="E77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>67</v>
+      </c>
+      <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>67</v>
+      </c>
+      <c r="B81">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>67</v>
+      </c>
+      <c r="B82">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B84">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>63</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>63</v>
+      </c>
+      <c r="B86">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>63</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>122</v>
+      </c>
+      <c r="D87" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>63</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>63</v>
+      </c>
+      <c r="B89">
+        <v>9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>63</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>63</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="C91" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>63</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>62</v>
+      </c>
+      <c r="B94">
+        <v>6</v>
+      </c>
+      <c r="C94" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>62</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>62</v>
+      </c>
+      <c r="C96" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>62</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="C97" t="s">
+        <v>122</v>
+      </c>
+      <c r="D97" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>62</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>62</v>
+      </c>
+      <c r="B99">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>62</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>121</v>
+      </c>
+      <c r="E100" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>62</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>62</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -11863,12 +14323,312 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA809508-A103-4D46-9CF6-0C48FFAADE3B}">
+  <dimension ref="A3:P11"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.61328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.61328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.07421875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.4609375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.23046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="11">
+        <v>7</v>
+      </c>
+      <c r="C5" s="12">
+        <v>10</v>
+      </c>
+      <c r="D5" s="12">
+        <v>9</v>
+      </c>
+      <c r="E5" s="12">
+        <v>9</v>
+      </c>
+      <c r="F5" s="12">
+        <v>10</v>
+      </c>
+      <c r="G5" s="12">
+        <v>10</v>
+      </c>
+      <c r="H5" s="12">
+        <v>9</v>
+      </c>
+      <c r="I5" s="12">
+        <v>6</v>
+      </c>
+      <c r="J5" s="12">
+        <v>9</v>
+      </c>
+      <c r="K5" s="12">
+        <v>9</v>
+      </c>
+      <c r="L5" s="13">
+        <v>88</v>
+      </c>
+      <c r="M5">
+        <f>COUNTIF(B5:K5,"&lt;&gt;")</f>
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <f>ROUNDDOWN(M5*$H$11,0)</f>
+        <v>7</v>
+      </c>
+      <c r="O5">
+        <f>COUNTIF(B5:K5,"&gt;=6")</f>
+        <v>10</v>
+      </c>
+      <c r="P5">
+        <f>O5-N5</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="23">
+        <v>7</v>
+      </c>
+      <c r="C6" s="24">
+        <v>8</v>
+      </c>
+      <c r="D6" s="24">
+        <v>8</v>
+      </c>
+      <c r="E6" s="24">
+        <v>7</v>
+      </c>
+      <c r="F6" s="24">
+        <v>8</v>
+      </c>
+      <c r="G6" s="24">
+        <v>8</v>
+      </c>
+      <c r="H6" s="24">
+        <v>6</v>
+      </c>
+      <c r="I6" s="24">
+        <v>6</v>
+      </c>
+      <c r="J6" s="24">
+        <v>7</v>
+      </c>
+      <c r="K6" s="24">
+        <v>7</v>
+      </c>
+      <c r="L6" s="22">
+        <v>72</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M7" si="0">COUNTIF(B6:K6,"&lt;&gt;")</f>
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N7" si="1">ROUNDDOWN(M6*$H$11,0)</f>
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O8" si="2">COUNTIF(B6:K6,"&gt;=6")</f>
+        <v>10</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:P7" si="3">O6-N6</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="23">
+        <v>7</v>
+      </c>
+      <c r="C7" s="24">
+        <v>7</v>
+      </c>
+      <c r="D7" s="24">
+        <v>7</v>
+      </c>
+      <c r="E7" s="24">
+        <v>4</v>
+      </c>
+      <c r="F7" s="24">
+        <v>4</v>
+      </c>
+      <c r="G7" s="24">
+        <v>6</v>
+      </c>
+      <c r="H7" s="24">
+        <v>3</v>
+      </c>
+      <c r="I7" s="24">
+        <v>8</v>
+      </c>
+      <c r="J7" s="24">
+        <v>5</v>
+      </c>
+      <c r="K7" s="24">
+        <v>5</v>
+      </c>
+      <c r="L7" s="22">
+        <v>56</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="14">
+        <v>21</v>
+      </c>
+      <c r="C8" s="15">
+        <v>25</v>
+      </c>
+      <c r="D8" s="15">
+        <v>24</v>
+      </c>
+      <c r="E8" s="15">
+        <v>20</v>
+      </c>
+      <c r="F8" s="15">
+        <v>22</v>
+      </c>
+      <c r="G8" s="15">
+        <v>24</v>
+      </c>
+      <c r="H8" s="15">
+        <v>18</v>
+      </c>
+      <c r="I8" s="15">
+        <v>20</v>
+      </c>
+      <c r="J8" s="15">
+        <v>21</v>
+      </c>
+      <c r="K8" s="15">
+        <v>21</v>
+      </c>
+      <c r="L8" s="16">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H11" s="20">
+        <v>0.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -12304,7 +15064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C50B69-EDA2-4731-AEF8-3618CD2900B9}">
   <dimension ref="C3:O35"/>
   <sheetViews>
@@ -12886,7 +15646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -13032,13 +15792,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -13153,12 +15911,795 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2F4E48-DF15-4139-92B7-EF5B34C47F08}">
+  <dimension ref="A3:P19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="M26" activeCellId="1" sqref="M7 M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="47.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.61328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.61328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.07421875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.4609375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.23046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="11">
+        <v>5</v>
+      </c>
+      <c r="C5" s="12">
+        <v>8</v>
+      </c>
+      <c r="D5" s="12">
+        <v>9</v>
+      </c>
+      <c r="E5" s="12">
+        <v>7</v>
+      </c>
+      <c r="F5" s="12">
+        <v>8</v>
+      </c>
+      <c r="G5" s="12">
+        <v>6</v>
+      </c>
+      <c r="H5" s="12">
+        <v>8</v>
+      </c>
+      <c r="I5" s="12">
+        <v>7</v>
+      </c>
+      <c r="J5" s="12">
+        <v>4</v>
+      </c>
+      <c r="K5" s="12">
+        <v>9</v>
+      </c>
+      <c r="L5" s="13">
+        <v>71</v>
+      </c>
+      <c r="M5">
+        <f>COUNTIF(B5:K5,"&lt;&gt;")</f>
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <f>ROUNDDOWN(M5*$I$19,0)</f>
+        <v>7</v>
+      </c>
+      <c r="O5">
+        <f>COUNTIF(B5:K5,"&gt;=6")</f>
+        <v>8</v>
+      </c>
+      <c r="P5">
+        <f>O5-N5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="23">
+        <v>8</v>
+      </c>
+      <c r="C6" s="24">
+        <v>8</v>
+      </c>
+      <c r="D6" s="24">
+        <v>5</v>
+      </c>
+      <c r="E6" s="24">
+        <v>9</v>
+      </c>
+      <c r="F6" s="24">
+        <v>4</v>
+      </c>
+      <c r="G6" s="24">
+        <v>4</v>
+      </c>
+      <c r="H6" s="24">
+        <v>8</v>
+      </c>
+      <c r="I6" s="24">
+        <v>8</v>
+      </c>
+      <c r="J6" s="24">
+        <v>8</v>
+      </c>
+      <c r="K6" s="24">
+        <v>2</v>
+      </c>
+      <c r="L6" s="22">
+        <v>64</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M16" si="0">COUNTIF(B6:K6,"&lt;&gt;")</f>
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N16" si="1">ROUNDDOWN(M6*$I$19,0)</f>
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O16" si="2">COUNTIF(B6:K6,"&gt;=6")</f>
+        <v>6</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:P16" si="3">O6-N6</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="23">
+        <v>8</v>
+      </c>
+      <c r="C7" s="24">
+        <v>6</v>
+      </c>
+      <c r="D7" s="24">
+        <v>4</v>
+      </c>
+      <c r="E7" s="24">
+        <v>7</v>
+      </c>
+      <c r="F7" s="24">
+        <v>9</v>
+      </c>
+      <c r="G7" s="24">
+        <v>4</v>
+      </c>
+      <c r="H7" s="24">
+        <v>7</v>
+      </c>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24">
+        <v>2</v>
+      </c>
+      <c r="K7" s="24">
+        <v>5</v>
+      </c>
+      <c r="L7" s="22">
+        <v>52</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="23">
+        <v>7</v>
+      </c>
+      <c r="C8" s="24">
+        <v>8</v>
+      </c>
+      <c r="D8" s="24">
+        <v>8</v>
+      </c>
+      <c r="E8" s="24">
+        <v>8</v>
+      </c>
+      <c r="F8" s="24">
+        <v>9</v>
+      </c>
+      <c r="G8" s="24">
+        <v>7</v>
+      </c>
+      <c r="H8" s="24">
+        <v>7</v>
+      </c>
+      <c r="I8" s="24">
+        <v>5</v>
+      </c>
+      <c r="J8" s="24">
+        <v>6</v>
+      </c>
+      <c r="K8" s="24">
+        <v>4</v>
+      </c>
+      <c r="L8" s="22">
+        <v>69</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="23">
+        <v>8</v>
+      </c>
+      <c r="C9" s="24">
+        <v>8</v>
+      </c>
+      <c r="D9" s="24">
+        <v>8</v>
+      </c>
+      <c r="E9" s="24">
+        <v>5</v>
+      </c>
+      <c r="F9" s="24">
+        <v>10</v>
+      </c>
+      <c r="G9" s="24">
+        <v>8</v>
+      </c>
+      <c r="H9" s="24">
+        <v>9</v>
+      </c>
+      <c r="I9" s="24">
+        <v>7</v>
+      </c>
+      <c r="J9" s="24">
+        <v>8</v>
+      </c>
+      <c r="K9" s="24">
+        <v>6</v>
+      </c>
+      <c r="L9" s="22">
+        <v>77</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="23">
+        <v>5</v>
+      </c>
+      <c r="C10" s="24">
+        <v>8</v>
+      </c>
+      <c r="D10" s="24">
+        <v>9</v>
+      </c>
+      <c r="E10" s="24">
+        <v>8</v>
+      </c>
+      <c r="F10" s="24">
+        <v>10</v>
+      </c>
+      <c r="G10" s="24">
+        <v>6</v>
+      </c>
+      <c r="H10" s="24">
+        <v>7</v>
+      </c>
+      <c r="I10" s="24">
+        <v>8</v>
+      </c>
+      <c r="J10" s="24">
+        <v>7</v>
+      </c>
+      <c r="K10" s="24">
+        <v>2</v>
+      </c>
+      <c r="L10" s="22">
+        <v>70</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="23">
+        <v>7</v>
+      </c>
+      <c r="C11" s="24">
+        <v>6</v>
+      </c>
+      <c r="D11" s="24">
+        <v>7</v>
+      </c>
+      <c r="E11" s="24">
+        <v>4</v>
+      </c>
+      <c r="F11" s="24">
+        <v>4</v>
+      </c>
+      <c r="G11" s="24">
+        <v>6</v>
+      </c>
+      <c r="H11" s="24">
+        <v>8</v>
+      </c>
+      <c r="I11" s="24">
+        <v>6</v>
+      </c>
+      <c r="J11" s="24">
+        <v>8</v>
+      </c>
+      <c r="K11" s="24">
+        <v>8</v>
+      </c>
+      <c r="L11" s="22">
+        <v>64</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="23">
+        <v>8</v>
+      </c>
+      <c r="C12" s="24">
+        <v>8</v>
+      </c>
+      <c r="D12" s="24">
+        <v>8</v>
+      </c>
+      <c r="E12" s="24">
+        <v>8</v>
+      </c>
+      <c r="F12" s="24">
+        <v>10</v>
+      </c>
+      <c r="G12" s="24">
+        <v>6</v>
+      </c>
+      <c r="H12" s="24">
+        <v>8</v>
+      </c>
+      <c r="I12" s="24">
+        <v>7</v>
+      </c>
+      <c r="J12" s="24">
+        <v>8</v>
+      </c>
+      <c r="K12" s="24">
+        <v>2</v>
+      </c>
+      <c r="L12" s="22">
+        <v>73</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24">
+        <v>7</v>
+      </c>
+      <c r="D13" s="24">
+        <v>5</v>
+      </c>
+      <c r="E13" s="24">
+        <v>7</v>
+      </c>
+      <c r="F13" s="24">
+        <v>4</v>
+      </c>
+      <c r="G13" s="24">
+        <v>2</v>
+      </c>
+      <c r="H13" s="24">
+        <v>7</v>
+      </c>
+      <c r="I13" s="24">
+        <v>6</v>
+      </c>
+      <c r="J13" s="24">
+        <v>2</v>
+      </c>
+      <c r="K13" s="24">
+        <v>10</v>
+      </c>
+      <c r="L13" s="22">
+        <v>50</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="23">
+        <v>8</v>
+      </c>
+      <c r="C14" s="24">
+        <v>6</v>
+      </c>
+      <c r="D14" s="24">
+        <v>8</v>
+      </c>
+      <c r="E14" s="24">
+        <v>5</v>
+      </c>
+      <c r="F14" s="24">
+        <v>3</v>
+      </c>
+      <c r="G14" s="24">
+        <v>6</v>
+      </c>
+      <c r="H14" s="24">
+        <v>6</v>
+      </c>
+      <c r="I14" s="24">
+        <v>8</v>
+      </c>
+      <c r="J14" s="24">
+        <v>8</v>
+      </c>
+      <c r="K14" s="24">
+        <v>8</v>
+      </c>
+      <c r="L14" s="22">
+        <v>66</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="23">
+        <v>5</v>
+      </c>
+      <c r="C15" s="24">
+        <v>8</v>
+      </c>
+      <c r="D15" s="24">
+        <v>9</v>
+      </c>
+      <c r="E15" s="24">
+        <v>10</v>
+      </c>
+      <c r="F15" s="24">
+        <v>8</v>
+      </c>
+      <c r="G15" s="24">
+        <v>8</v>
+      </c>
+      <c r="H15" s="24">
+        <v>7</v>
+      </c>
+      <c r="I15" s="24">
+        <v>7</v>
+      </c>
+      <c r="J15" s="24">
+        <v>7</v>
+      </c>
+      <c r="K15" s="24">
+        <v>8</v>
+      </c>
+      <c r="L15" s="22">
+        <v>77</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="23">
+        <v>7</v>
+      </c>
+      <c r="C16" s="24">
+        <v>8</v>
+      </c>
+      <c r="D16" s="24">
+        <v>8</v>
+      </c>
+      <c r="E16" s="24">
+        <v>8</v>
+      </c>
+      <c r="F16" s="24">
+        <v>9</v>
+      </c>
+      <c r="G16" s="24">
+        <v>8</v>
+      </c>
+      <c r="H16" s="24">
+        <v>8</v>
+      </c>
+      <c r="I16" s="24">
+        <v>6</v>
+      </c>
+      <c r="J16" s="24">
+        <v>7</v>
+      </c>
+      <c r="K16" s="24">
+        <v>5</v>
+      </c>
+      <c r="L16" s="22">
+        <v>74</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="14">
+        <v>76</v>
+      </c>
+      <c r="C17" s="15">
+        <v>89</v>
+      </c>
+      <c r="D17" s="15">
+        <v>88</v>
+      </c>
+      <c r="E17" s="15">
+        <v>86</v>
+      </c>
+      <c r="F17" s="15">
+        <v>88</v>
+      </c>
+      <c r="G17" s="15">
+        <v>71</v>
+      </c>
+      <c r="H17" s="15">
+        <v>90</v>
+      </c>
+      <c r="I17" s="15">
+        <v>75</v>
+      </c>
+      <c r="J17" s="15">
+        <v>75</v>
+      </c>
+      <c r="K17" s="15">
+        <v>69</v>
+      </c>
+      <c r="L17" s="16">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I19" s="20">
+        <v>0.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -14726,7 +18267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6832F1-E35F-4072-9AD5-2414853E456F}">
   <dimension ref="C3:O35"/>
   <sheetViews>
@@ -15276,7 +18817,180 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="128" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -15330,7 +19044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DED03F0-0E08-4C03-8423-4E6789AB7336}">
   <dimension ref="A3:L18"/>
   <sheetViews>
@@ -15576,7 +19290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E58"/>
   <sheetViews>
@@ -16265,180 +19979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="128" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.765625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -16477,7 +20018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -16779,7 +20320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -18056,8 +21597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A0E7BB-FE0E-421F-83D7-01164E0F13BD}">
   <dimension ref="C3:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -18300,1196 +21841,627 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA942EF-15D5-48CC-8AEC-17E3A2E51638}">
+  <dimension ref="A3:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozenSplit"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="M4" sqref="M4:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="100.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.61328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.61328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.07421875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+      <c r="N3" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="11">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12">
+        <v>6</v>
+      </c>
+      <c r="E5" s="12">
+        <v>4</v>
+      </c>
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12">
+        <v>2</v>
+      </c>
+      <c r="H5" s="12">
+        <v>6</v>
+      </c>
+      <c r="I5" s="12">
+        <v>5</v>
+      </c>
+      <c r="J5" s="12">
+        <v>3</v>
+      </c>
+      <c r="K5" s="12">
+        <v>10</v>
+      </c>
+      <c r="L5" s="13">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="M5">
+        <f>COUNTIF(B5:K5,"&lt;&gt;")</f>
+        <v>9</v>
+      </c>
+      <c r="N5">
+        <f>ROUNDDOWN(M5*$B$16,0)</f>
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <f>COUNTIF(B5:K5,"&gt;=6")</f>
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <f>O5-N5</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="23">
+        <v>5</v>
+      </c>
+      <c r="C6" s="24">
+        <v>8</v>
+      </c>
+      <c r="D6" s="24">
+        <v>7</v>
+      </c>
+      <c r="E6" s="24">
+        <v>10</v>
+      </c>
+      <c r="F6" s="24">
+        <v>10</v>
+      </c>
+      <c r="G6" s="24">
+        <v>6</v>
+      </c>
+      <c r="H6" s="24">
+        <v>9</v>
+      </c>
+      <c r="I6" s="24">
+        <v>9</v>
+      </c>
+      <c r="J6" s="24">
+        <v>6</v>
+      </c>
+      <c r="K6" s="24">
+        <v>8</v>
+      </c>
+      <c r="L6" s="22">
+        <v>78</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M13" si="0">COUNTIF(B6:K6,"&lt;&gt;")</f>
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N13" si="1">ROUNDDOWN(M6*$B$16,0)</f>
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O13" si="2">COUNTIF(B6:K6,"&gt;=6")</f>
+        <v>9</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:P13" si="3">O6-N6</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="23">
+        <v>9</v>
+      </c>
+      <c r="C7" s="24">
+        <v>7</v>
+      </c>
+      <c r="D7" s="24">
+        <v>7</v>
+      </c>
+      <c r="E7" s="24">
+        <v>10</v>
+      </c>
+      <c r="F7" s="24">
+        <v>2</v>
+      </c>
+      <c r="G7" s="24">
+        <v>10</v>
+      </c>
+      <c r="H7" s="24">
+        <v>6</v>
+      </c>
+      <c r="I7" s="24">
+        <v>8</v>
+      </c>
+      <c r="J7" s="24">
+        <v>5</v>
+      </c>
+      <c r="K7" s="24">
+        <v>6</v>
+      </c>
+      <c r="L7" s="22">
+        <v>70</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="23">
+        <v>1</v>
+      </c>
+      <c r="C8" s="24">
+        <v>7</v>
+      </c>
+      <c r="D8" s="24">
+        <v>8</v>
+      </c>
+      <c r="E8" s="24">
+        <v>5</v>
+      </c>
+      <c r="F8" s="24">
+        <v>10</v>
+      </c>
+      <c r="G8" s="24">
+        <v>6</v>
+      </c>
+      <c r="H8" s="24">
+        <v>9</v>
+      </c>
+      <c r="I8" s="24">
+        <v>7</v>
+      </c>
+      <c r="J8" s="24">
+        <v>4</v>
+      </c>
+      <c r="K8" s="24">
+        <v>5</v>
+      </c>
+      <c r="L8" s="22">
+        <v>62</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B2">
-        <v>6.9</v>
-      </c>
-      <c r="C2" s="20">
-        <v>0.32</v>
-      </c>
-      <c r="D2">
+      <c r="B9" s="23">
+        <v>5</v>
+      </c>
+      <c r="C9" s="24">
+        <v>7</v>
+      </c>
+      <c r="D9" s="24">
+        <v>6</v>
+      </c>
+      <c r="E9" s="24">
+        <v>6</v>
+      </c>
+      <c r="F9" s="24">
+        <v>7</v>
+      </c>
+      <c r="G9" s="24">
+        <v>5</v>
+      </c>
+      <c r="H9" s="24">
+        <v>8</v>
+      </c>
+      <c r="I9" s="24">
+        <v>7</v>
+      </c>
+      <c r="J9" s="24">
+        <v>8</v>
+      </c>
+      <c r="K9" s="24">
+        <v>10</v>
+      </c>
+      <c r="L9" s="22">
+        <v>69</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="23">
+        <v>4</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24">
+        <v>9</v>
+      </c>
+      <c r="E10" s="24">
+        <v>7</v>
+      </c>
+      <c r="F10" s="24">
+        <v>5</v>
+      </c>
+      <c r="G10" s="24">
+        <v>8</v>
+      </c>
+      <c r="H10" s="24">
+        <v>6</v>
+      </c>
+      <c r="I10" s="24">
+        <v>8</v>
+      </c>
+      <c r="J10" s="24">
+        <v>8</v>
+      </c>
+      <c r="K10" s="24">
+        <v>5</v>
+      </c>
+      <c r="L10" s="22">
+        <v>60</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="23">
         <v>7</v>
       </c>
-      <c r="C3" s="20">
-        <v>0.51</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="C11" s="24">
+        <v>6</v>
+      </c>
+      <c r="D11" s="24">
+        <v>9</v>
+      </c>
+      <c r="E11" s="24">
+        <v>5</v>
+      </c>
+      <c r="F11" s="24">
+        <v>6</v>
+      </c>
+      <c r="G11" s="24">
+        <v>8</v>
+      </c>
+      <c r="H11" s="24">
+        <v>8</v>
+      </c>
+      <c r="I11" s="24">
+        <v>8</v>
+      </c>
+      <c r="J11" s="24">
+        <v>7</v>
+      </c>
+      <c r="K11" s="24">
+        <v>10</v>
+      </c>
+      <c r="L11" s="22">
+        <v>74</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B4">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C4" s="20">
-        <v>0.23</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5">
-        <v>7.8</v>
-      </c>
-      <c r="C5" s="20">
-        <v>0.36</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6">
-        <v>6.7</v>
-      </c>
-      <c r="C6" s="20">
-        <v>0.36</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B12" s="23">
+        <v>7</v>
+      </c>
+      <c r="C12" s="24">
+        <v>8</v>
+      </c>
+      <c r="D12" s="24">
+        <v>8</v>
+      </c>
+      <c r="E12" s="24">
+        <v>10</v>
+      </c>
+      <c r="F12" s="24">
+        <v>10</v>
+      </c>
+      <c r="G12" s="24">
+        <v>9</v>
+      </c>
+      <c r="H12" s="24">
+        <v>7</v>
+      </c>
+      <c r="I12" s="24">
+        <v>8</v>
+      </c>
+      <c r="J12" s="24">
+        <v>7</v>
+      </c>
+      <c r="K12" s="24">
+        <v>8</v>
+      </c>
+      <c r="L12" s="22">
+        <v>82</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B7">
-        <v>5.8</v>
-      </c>
-      <c r="C7" s="20">
-        <v>0.37</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B13" s="23">
+        <v>3</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24">
+        <v>7</v>
+      </c>
+      <c r="E13" s="24">
+        <v>8</v>
+      </c>
+      <c r="F13" s="24">
+        <v>4</v>
+      </c>
+      <c r="G13" s="24">
+        <v>8</v>
+      </c>
+      <c r="H13" s="24">
+        <v>5</v>
+      </c>
+      <c r="I13" s="24">
+        <v>7</v>
+      </c>
+      <c r="J13" s="24">
+        <v>5</v>
+      </c>
+      <c r="K13" s="24">
+        <v>5</v>
+      </c>
+      <c r="L13" s="22">
+        <v>52</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="14">
+        <v>44</v>
+      </c>
+      <c r="C14" s="15">
+        <v>43</v>
+      </c>
+      <c r="D14" s="15">
         <v>67</v>
       </c>
-      <c r="B8">
-        <v>7.4</v>
-      </c>
-      <c r="C8" s="20">
-        <v>0.31</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9">
-        <v>6.2</v>
-      </c>
-      <c r="C9" s="20">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C10" s="20">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
+      <c r="E14" s="15">
+        <v>65</v>
+      </c>
+      <c r="F14" s="15">
+        <v>55</v>
+      </c>
+      <c r="G14" s="15">
+        <v>62</v>
+      </c>
+      <c r="H14" s="15">
+        <v>64</v>
+      </c>
+      <c r="I14" s="15">
+        <v>67</v>
+      </c>
+      <c r="J14" s="15">
+        <v>53</v>
+      </c>
+      <c r="K14" s="15">
+        <v>67</v>
+      </c>
+      <c r="L14" s="16">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B16" s="20">
+        <v>0.75</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34">
-        <v>8</v>
-      </c>
-      <c r="C34" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36">
-        <v>8</v>
-      </c>
-      <c r="C36" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37">
-        <v>8</v>
-      </c>
-      <c r="C37" t="s">
-        <v>122</v>
-      </c>
-      <c r="D37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41">
-        <v>9</v>
-      </c>
-      <c r="C41" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43">
-        <v>9</v>
-      </c>
-      <c r="C43" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45">
-        <v>10</v>
-      </c>
-      <c r="C45" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46">
-        <v>8</v>
-      </c>
-      <c r="C46" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>70</v>
-      </c>
-      <c r="B47">
-        <v>8</v>
-      </c>
-      <c r="C47" t="s">
-        <v>122</v>
-      </c>
-      <c r="D47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48">
-        <v>10</v>
-      </c>
-      <c r="C48" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49">
-        <v>9</v>
-      </c>
-      <c r="C49" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>70</v>
-      </c>
-      <c r="B50">
-        <v>6</v>
-      </c>
-      <c r="C50" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51">
-        <v>6</v>
-      </c>
-      <c r="C51" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52">
-        <v>5</v>
-      </c>
-      <c r="C52" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53">
-        <v>8</v>
-      </c>
-      <c r="C53" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54">
-        <v>9</v>
-      </c>
-      <c r="C54" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55">
-        <v>7</v>
-      </c>
-      <c r="C55" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>69</v>
-      </c>
-      <c r="B57">
-        <v>5</v>
-      </c>
-      <c r="C57" t="s">
-        <v>122</v>
-      </c>
-      <c r="D57" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>69</v>
-      </c>
-      <c r="B58">
-        <v>5</v>
-      </c>
-      <c r="C58" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>69</v>
-      </c>
-      <c r="B59">
-        <v>6</v>
-      </c>
-      <c r="C59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>69</v>
-      </c>
-      <c r="B60">
-        <v>8</v>
-      </c>
-      <c r="C60" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61">
-        <v>8</v>
-      </c>
-      <c r="C61" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62">
-        <v>4</v>
-      </c>
-      <c r="C62" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63">
-        <v>7</v>
-      </c>
-      <c r="C63" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>68</v>
-      </c>
-      <c r="B64">
-        <v>7</v>
-      </c>
-      <c r="C64" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65">
-        <v>8</v>
-      </c>
-      <c r="C65" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="C66" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67">
-        <v>5</v>
-      </c>
-      <c r="C67" t="s">
-        <v>122</v>
-      </c>
-      <c r="D67" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68">
-        <v>4</v>
-      </c>
-      <c r="C68" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>5</v>
-      </c>
-      <c r="C69" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <v>5</v>
-      </c>
-      <c r="C70" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>68</v>
-      </c>
-      <c r="B71">
-        <v>8</v>
-      </c>
-      <c r="C71" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>68</v>
-      </c>
-      <c r="B72">
-        <v>3</v>
-      </c>
-      <c r="C72" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>67</v>
-      </c>
-      <c r="B73">
-        <v>8</v>
-      </c>
-      <c r="C73" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>67</v>
-      </c>
-      <c r="B74">
-        <v>9</v>
-      </c>
-      <c r="C74" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>67</v>
-      </c>
-      <c r="B75">
-        <v>5</v>
-      </c>
-      <c r="C75" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>67</v>
-      </c>
-      <c r="B76">
-        <v>6</v>
-      </c>
-      <c r="C76" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>67</v>
-      </c>
-      <c r="B77">
-        <v>10</v>
-      </c>
-      <c r="C77" t="s">
-        <v>122</v>
-      </c>
-      <c r="D77" t="s">
-        <v>49</v>
-      </c>
-      <c r="E77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>67</v>
-      </c>
-      <c r="B78">
-        <v>6</v>
-      </c>
-      <c r="C78" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>67</v>
-      </c>
-      <c r="B79">
-        <v>8</v>
-      </c>
-      <c r="C79" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>67</v>
-      </c>
-      <c r="B80">
-        <v>7</v>
-      </c>
-      <c r="C80" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>67</v>
-      </c>
-      <c r="B81">
-        <v>8</v>
-      </c>
-      <c r="C81" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>67</v>
-      </c>
-      <c r="B82">
-        <v>7</v>
-      </c>
-      <c r="C82" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>63</v>
-      </c>
-      <c r="B83">
-        <v>7</v>
-      </c>
-      <c r="C83" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>63</v>
-      </c>
-      <c r="B84">
-        <v>8</v>
-      </c>
-      <c r="C84" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>63</v>
-      </c>
-      <c r="B85">
-        <v>5</v>
-      </c>
-      <c r="C85" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>63</v>
-      </c>
-      <c r="B86">
-        <v>7</v>
-      </c>
-      <c r="C86" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>63</v>
-      </c>
-      <c r="B87">
-        <v>5</v>
-      </c>
-      <c r="C87" t="s">
-        <v>122</v>
-      </c>
-      <c r="D87" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>63</v>
-      </c>
-      <c r="B88">
-        <v>10</v>
-      </c>
-      <c r="C88" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>63</v>
-      </c>
-      <c r="B89">
-        <v>9</v>
-      </c>
-      <c r="C89" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>63</v>
-      </c>
-      <c r="B90">
-        <v>4</v>
-      </c>
-      <c r="C90" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>63</v>
-      </c>
-      <c r="B91">
-        <v>6</v>
-      </c>
-      <c r="C91" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>63</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="C92" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>62</v>
-      </c>
-      <c r="B93">
-        <v>5</v>
-      </c>
-      <c r="C93" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>62</v>
-      </c>
-      <c r="B94">
-        <v>6</v>
-      </c>
-      <c r="C94" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>62</v>
-      </c>
-      <c r="B95">
-        <v>4</v>
-      </c>
-      <c r="C95" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>62</v>
-      </c>
-      <c r="C96" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>62</v>
-      </c>
-      <c r="B97">
-        <v>10</v>
-      </c>
-      <c r="C97" t="s">
-        <v>122</v>
-      </c>
-      <c r="D97" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>62</v>
-      </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-      <c r="C98" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>62</v>
-      </c>
-      <c r="B99">
-        <v>6</v>
-      </c>
-      <c r="C99" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>62</v>
-      </c>
-      <c r="B100">
-        <v>3</v>
-      </c>
-      <c r="C100" t="s">
-        <v>121</v>
-      </c>
-      <c r="E100" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>62</v>
-      </c>
-      <c r="B101">
-        <v>2</v>
-      </c>
-      <c r="C101" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>62</v>
-      </c>
-      <c r="B102">
-        <v>3</v>
-      </c>
-      <c r="C102" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>